--- a/data/trans_camb/P42-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P42-Dificultad-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>7.36676188019686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.549350144545547</v>
+        <v>1.549350144545536</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.392156955835556</v>
+        <v>5.113826503221166</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.862881958105761</v>
+        <v>4.00026169761226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.219970808844937</v>
+        <v>-3.04383679769636</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.6630774109781</v>
+        <v>11.86527166007895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.79378605844666</v>
+        <v>10.73854387591079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.892354457642593</v>
+        <v>5.79058547899346</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.09223263694307532</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.01939802747849263</v>
+        <v>0.01939802747849249</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06609943742135997</v>
+        <v>0.06275910571256081</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04711222995124514</v>
+        <v>0.0496443772940053</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03963431222975939</v>
+        <v>-0.03721188247646563</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1504504775242617</v>
+        <v>0.1529731441298882</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1393098789599076</v>
+        <v>0.1393723294591868</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.07515813566593843</v>
+        <v>0.0752660999257114</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.420021287579452</v>
+        <v>4.149985511860431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.532996821573825</v>
+        <v>6.358215226402721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8382645454078113</v>
+        <v>0.5424660379415324</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.01128651513963</v>
+        <v>10.63344591346913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.96481389073299</v>
+        <v>12.87394755040277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.038726130635002</v>
+        <v>7.741267259676922</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05514332320957965</v>
+        <v>0.05216929072150719</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08126736495450536</v>
+        <v>0.08054438262882649</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01056827441121626</v>
+        <v>0.006752496020086977</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1447574715500777</v>
+        <v>0.1403132819479483</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1696895877151829</v>
+        <v>0.1697860960068239</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.105277338193659</v>
+        <v>0.102150995154419</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.645542331707112</v>
+        <v>5.594944590313434</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.21317185835995</v>
+        <v>4.350667805574945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.573067719131547</v>
+        <v>0.7203498458908809</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.29778610472394</v>
+        <v>12.16949653726524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.23303132228333</v>
+        <v>11.21374402649523</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.868850965680997</v>
+        <v>8.34903212290406</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07055889375579355</v>
+        <v>0.07076503985875197</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05505739474013711</v>
+        <v>0.05447571921100711</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01957975201512119</v>
+        <v>0.009362105264382321</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.161238286298863</v>
+        <v>0.1604581857869945</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1486946149728437</v>
+        <v>0.1455026168415026</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1156234134104117</v>
+        <v>0.1103536166791461</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.939358112231181</v>
+        <v>-1.552024918625686</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.296118953336141</v>
+        <v>-0.8587782812977411</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8439382208303663</v>
+        <v>-0.884475463914966</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.905036016800151</v>
+        <v>8.58087272876916</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.812926199408572</v>
+        <v>9.249044610318187</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.494314439387265</v>
+        <v>8.492117780677823</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02182403674835056</v>
+        <v>-0.01731554862869992</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01495670106412177</v>
+        <v>-0.00819642969439973</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01006133282062483</v>
+        <v>-0.009974755272076953</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.09938673133192695</v>
+        <v>0.1070370471587457</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1083274655127397</v>
+        <v>0.117187551082317</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1042639496369172</v>
+        <v>0.1054957558812779</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>7.95432623040414</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.395704517991894</v>
+        <v>4.395704517991916</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.201002342764721</v>
+        <v>6.20341411753127</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.204106393047197</v>
+        <v>6.369927272877139</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.183427748649859</v>
+        <v>2.542671727939379</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.852357456778229</v>
+        <v>9.75022431544723</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.811096288049882</v>
+        <v>9.846653061829576</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.308947529510808</v>
+        <v>6.458189120044556</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>0.1004043996908019</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.0554852869448753</v>
+        <v>0.05548528694487558</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07722826165754092</v>
+        <v>0.07756217310106781</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07730142688242986</v>
+        <v>0.07950407032663111</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02726115484046287</v>
+        <v>0.03180724119503797</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1262369933769316</v>
+        <v>0.1252125003767724</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1254383251105539</v>
+        <v>0.1259519444932789</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.08063591108545226</v>
+        <v>0.08266188018396303</v>
       </c>
     </row>
     <row r="34">
